--- a/solutions/aws/cloud/disaster-recovery-web-application/delivery/requirements.xlsx
+++ b/solutions/aws/cloud/disaster-recovery-web-application/delivery/requirements.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 13, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
